--- a/www/EQuiPD_260116.xlsx
+++ b/www/EQuiPD_260116.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmork/Documents/GitHub/C40_EQuiPD/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2CD5A2-BD57-F141-A7DC-AF0901281EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B970CDF5-EB0A-8C48-BFA5-425752CE0BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="760" windowWidth="28040" windowHeight="17880" xr2:uid="{30BB5428-C633-D247-A3EC-BE7DB74FA751}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="428">
   <si>
     <t>EQuiPD</t>
   </si>
@@ -1225,9 +1225,6 @@
     <t>Scoring</t>
   </si>
   <si>
-    <t>To identify gaps and recommendations begin by filtering by category, domain, and/or equity theme. Use the dropdown arrows in the right-hand columns below and check '1' for the areas you are interested in learning more about.</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -1502,6 +1499,15 @@
   </si>
   <si>
     <t>v260116</t>
+  </si>
+  <si>
+    <t>This is an optional activity to further explore and understand the results of your assessment as well as access recommendations related to different categories, domains, and/or equity themes. To investigate a particular area of interest, use the dropdown arrows in the right-hand columns (cells H7-T7) and check '1' (uncheck 'Blanks') for the areas you are interested in learning more about. See Figure at right to see an example of how to filter. The resulting questions shown will be directly relevant to the areas you have selected to filter.</t>
+  </si>
+  <si>
+    <t>Must be 'Yes' for upload to web app</t>
+  </si>
+  <si>
+    <t>Required for upload to web app</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1678,6 +1684,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Figtree"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Figtree"/>
     </font>
   </fonts>
@@ -2024,7 +2036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2352,6 +2364,9 @@
     <xf numFmtId="49" fontId="9" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4133,15 +4148,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>469581</xdr:colOff>
+      <xdr:colOff>228280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>53362</xdr:rowOff>
+      <xdr:rowOff>15261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3030925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2924202</xdr:rowOff>
+      <xdr:rowOff>2837278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4164,8 +4179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4909245" y="1611513"/>
-          <a:ext cx="2561344" cy="3617899"/>
+          <a:off x="4673280" y="1564661"/>
+          <a:ext cx="3200719" cy="4523817"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4531,7 +4546,7 @@
         <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="8" t="s">
@@ -4576,7 +4591,7 @@
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="112" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="37"/>
@@ -4599,11 +4614,11 @@
     </row>
     <row r="3" spans="1:20" ht="73" customHeight="1" thickBot="1">
       <c r="B3" s="39"/>
-      <c r="C3" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
+      <c r="C3" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="42"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
@@ -4621,11 +4636,11 @@
     </row>
     <row r="4" spans="1:20" ht="19">
       <c r="B4" s="39"/>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="42"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
@@ -4685,11 +4700,11 @@
     </row>
     <row r="7" spans="1:20" ht="140" customHeight="1" thickBot="1">
       <c r="B7" s="39"/>
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="153" t="s">
         <v>258</v>
       </c>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="155"/>
       <c r="F7" s="42"/>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
@@ -4707,10 +4722,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="39"/>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="144" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="143"/>
+      <c r="D8" s="144"/>
       <c r="E8" s="131"/>
       <c r="F8" s="42"/>
       <c r="H8" s="11"/>
@@ -4771,11 +4786,11 @@
     </row>
     <row r="11" spans="1:20" ht="115" customHeight="1">
       <c r="B11" s="39"/>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="156" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="158"/>
       <c r="F11" s="42"/>
       <c r="H11" s="11"/>
       <c r="I11" s="12"/>
@@ -4793,11 +4808,11 @@
     </row>
     <row r="12" spans="1:20" ht="37" customHeight="1">
       <c r="B12" s="39"/>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="161"/>
       <c r="F12" s="42"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12"/>
@@ -4815,11 +4830,11 @@
     </row>
     <row r="13" spans="1:20" ht="21" customHeight="1">
       <c r="B13" s="39"/>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
       <c r="F13" s="42"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
@@ -4837,11 +4852,11 @@
     </row>
     <row r="14" spans="1:20" ht="34" customHeight="1">
       <c r="B14" s="39"/>
-      <c r="C14" s="149" t="s">
+      <c r="C14" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
       <c r="F14" s="42"/>
       <c r="H14" s="11"/>
       <c r="I14" s="12"/>
@@ -4859,11 +4874,11 @@
     </row>
     <row r="15" spans="1:20" ht="34" customHeight="1">
       <c r="B15" s="39"/>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
       <c r="F15" s="42"/>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
@@ -4881,11 +4896,11 @@
     </row>
     <row r="16" spans="1:20" ht="34" customHeight="1">
       <c r="B16" s="39"/>
-      <c r="C16" s="149" t="s">
+      <c r="C16" s="150" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="42"/>
       <c r="H16" s="11"/>
       <c r="I16" s="12"/>
@@ -4903,11 +4918,11 @@
     </row>
     <row r="17" spans="2:20" ht="32" customHeight="1" thickBot="1">
       <c r="B17" s="39"/>
-      <c r="C17" s="152" t="s">
-        <v>357</v>
-      </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
+      <c r="C17" s="153" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="154"/>
+      <c r="E17" s="155"/>
       <c r="F17" s="42"/>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
@@ -4925,10 +4940,10 @@
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="39"/>
-      <c r="C18" s="144" t="s">
+      <c r="C18" s="145" t="s">
         <v>260</v>
       </c>
-      <c r="D18" s="144"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="132"/>
       <c r="F18" s="42"/>
       <c r="H18" s="11"/>
@@ -4947,8 +4962,8 @@
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="39"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
       <c r="E19" s="131"/>
       <c r="F19" s="42"/>
       <c r="H19" s="11"/>
@@ -5039,7 +5054,9 @@
         <v>215</v>
       </c>
       <c r="D23" s="43"/>
-      <c r="E23" s="137"/>
+      <c r="E23" s="142" t="s">
+        <v>427</v>
+      </c>
       <c r="F23" s="42"/>
       <c r="H23" s="14"/>
       <c r="I23" s="15"/>
@@ -5105,13 +5122,15 @@
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>331</v>
       </c>
       <c r="D26" s="141"/>
-      <c r="E26" s="137"/>
+      <c r="E26" s="142" t="s">
+        <v>427</v>
+      </c>
       <c r="F26" s="42"/>
       <c r="H26" s="14"/>
       <c r="I26" s="15"/>
@@ -5132,12 +5151,14 @@
         <v>58</v>
       </c>
       <c r="C27" s="123" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D27" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="137"/>
+      <c r="E27" s="142" t="s">
+        <v>426</v>
+      </c>
       <c r="F27" s="42"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
@@ -5190,7 +5211,7 @@
         <v>40</v>
       </c>
       <c r="E29" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F29" s="42"/>
       <c r="H29" s="8" t="s">
@@ -5870,7 +5891,7 @@
         <v>40</v>
       </c>
       <c r="E56" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F56" s="42"/>
       <c r="H56" s="8" t="s">
@@ -6292,7 +6313,7 @@
         <v>40</v>
       </c>
       <c r="E73" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F73" s="42"/>
       <c r="H73" s="8" t="s">
@@ -6594,7 +6615,7 @@
         <v>40</v>
       </c>
       <c r="E84" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F84" s="42"/>
       <c r="H84" s="8" t="s">
@@ -7109,7 +7130,7 @@
         <v>40</v>
       </c>
       <c r="E105" s="118" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F105" s="42"/>
       <c r="H105" s="8" t="s">
@@ -7433,10 +7454,10 @@
     </row>
     <row r="118" spans="1:20">
       <c r="B118" s="64"/>
-      <c r="C118" s="142" t="s">
+      <c r="C118" s="143" t="s">
         <v>328</v>
       </c>
-      <c r="D118" s="142"/>
+      <c r="D118" s="143"/>
       <c r="E118" s="138"/>
       <c r="F118" s="67"/>
     </row>
@@ -7491,7 +7512,7 @@
     <mergeCell ref="C14:E14"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:E27" xr:uid="{F5AED12B-0397-E94D-BEE6-2BC9B21F74F7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27" xr:uid="{F5AED12B-0397-E94D-BEE6-2BC9B21F74F7}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D85:E102 D74:E81 D57:E71 D106:E117 D30:E54" xr:uid="{484BD951-A7F9-384D-A572-56F4432152B5}">
@@ -7523,7 +7544,7 @@
           <x14:formula1>
             <xm:f>'c40_cities'!$C$2:$C$99</xm:f>
           </x14:formula1>
-          <xm:sqref>D23:E23</xm:sqref>
+          <xm:sqref>D23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7616,11 +7637,11 @@
     <row r="3" spans="1:19" s="5" customFormat="1" ht="73" customHeight="1" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="39"/>
-      <c r="C3" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
+      <c r="C3" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="126"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7639,11 +7660,11 @@
     <row r="4" spans="1:19" s="5" customFormat="1" ht="19">
       <c r="A4" s="4"/>
       <c r="B4" s="64"/>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="164" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="127"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -7686,10 +7707,10 @@
         <f>"EQuiPD Self-Assessment Scores: "&amp;IF('Self-Assessment'!$D$23="Not listed",'Self-Assessment'!$D$24,'Self-Assessment'!$D$23)&amp;" "&amp;'Self-Assessment'!D$26</f>
         <v xml:space="preserve">EQuiPD Self-Assessment Scores:  </v>
       </c>
-      <c r="E7" s="161" t="s">
+      <c r="E7" s="162" t="s">
         <v>329</v>
       </c>
-      <c r="F7" s="161"/>
+      <c r="F7" s="162"/>
       <c r="G7" s="16" t="s">
         <v>0</v>
       </c>
@@ -7704,30 +7725,30 @@
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="96" customHeight="1">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
     </row>
     <row r="10" spans="1:19" ht="16" customHeight="1">
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="162" t="s">
+      <c r="D10" s="163" t="s">
         <v>330</v>
       </c>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
     </row>
     <row r="11" spans="1:19">
       <c r="B11" s="21"/>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:19" ht="32">
@@ -7869,13 +7890,13 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" ht="127" customHeight="1">
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="20"/>
@@ -7886,11 +7907,11 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="21"/>
-      <c r="C22" s="164" t="s">
+      <c r="C22" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="2:6" ht="32">
@@ -8042,13 +8063,13 @@
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="2:6" ht="155" customHeight="1">
-      <c r="B32" s="156" t="s">
+      <c r="B32" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="20"/>
@@ -8059,11 +8080,11 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="21"/>
-      <c r="C34" s="164" t="s">
+      <c r="C34" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
       <c r="F34" s="22"/>
     </row>
     <row r="35" spans="2:6" ht="32">
@@ -8205,13 +8226,13 @@
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="2:6" ht="156" customHeight="1">
-      <c r="B43" s="156" t="s">
+      <c r="B43" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
+      <c r="C43" s="157"/>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157"/>
+      <c r="F43" s="157"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="20"/>
@@ -8222,11 +8243,11 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="21"/>
-      <c r="C45" s="164" t="s">
+      <c r="C45" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="164"/>
-      <c r="E45" s="164"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="165"/>
       <c r="F45" s="22"/>
     </row>
     <row r="46" spans="2:6" ht="32">
@@ -8378,13 +8399,13 @@
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="2:6" ht="156" customHeight="1">
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="20"/>
@@ -8395,11 +8416,11 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="21"/>
-      <c r="C57" s="164" t="s">
+      <c r="C57" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6" ht="32">
@@ -8541,13 +8562,13 @@
       <c r="F65" s="20"/>
     </row>
     <row r="66" spans="2:6" ht="152" customHeight="1">
-      <c r="B66" s="156" t="s">
+      <c r="B66" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="20"/>
@@ -8558,11 +8579,11 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="21"/>
-      <c r="C68" s="164" t="s">
+      <c r="C68" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="164"/>
-      <c r="E68" s="164"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="2:6" ht="32">
@@ -8981,11 +9002,11 @@
     </row>
     <row r="3" spans="1:20" ht="73" customHeight="1" thickBot="1">
       <c r="B3" s="39"/>
-      <c r="C3" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="147"/>
+      <c r="C3" s="146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="42"/>
       <c r="H3" s="11"/>
       <c r="I3" s="12"/>
@@ -9003,11 +9024,11 @@
     </row>
     <row r="4" spans="1:20" ht="19" hidden="1">
       <c r="B4" s="39"/>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="42"/>
       <c r="H4" s="11"/>
       <c r="I4" s="12"/>
@@ -9025,11 +9046,11 @@
     </row>
     <row r="5" spans="1:20" ht="19">
       <c r="B5" s="39"/>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="42"/>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
@@ -9045,33 +9066,33 @@
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:20" ht="59" customHeight="1">
+    <row r="6" spans="1:20" ht="134" customHeight="1">
       <c r="B6" s="39"/>
-      <c r="C6" s="168" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="168"/>
+      <c r="C6" s="169" t="s">
+        <v>425</v>
+      </c>
+      <c r="D6" s="169"/>
       <c r="E6" s="122"/>
       <c r="F6" s="42"/>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="166" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="165" t="s">
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="165" t="s">
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="166"/>
-      <c r="T6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="168"/>
     </row>
     <row r="7" spans="1:20" ht="291" customHeight="1">
       <c r="B7" s="107">
@@ -9088,43 +9109,43 @@
       </c>
       <c r="F7" s="42"/>
       <c r="H7" s="133" t="s">
+        <v>410</v>
+      </c>
+      <c r="I7" s="134" t="s">
         <v>411</v>
       </c>
-      <c r="I7" s="134" t="s">
+      <c r="J7" s="134" t="s">
         <v>412</v>
       </c>
-      <c r="J7" s="134" t="s">
+      <c r="K7" s="134" t="s">
         <v>413</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="L7" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="L7" s="134" t="s">
+      <c r="M7" s="135" t="s">
         <v>415</v>
       </c>
-      <c r="M7" s="135" t="s">
+      <c r="N7" s="134" t="s">
         <v>416</v>
       </c>
-      <c r="N7" s="134" t="s">
+      <c r="O7" s="134" t="s">
         <v>417</v>
       </c>
-      <c r="O7" s="134" t="s">
+      <c r="P7" s="134" t="s">
         <v>418</v>
       </c>
-      <c r="P7" s="134" t="s">
+      <c r="Q7" s="135" t="s">
         <v>419</v>
       </c>
-      <c r="Q7" s="135" t="s">
+      <c r="R7" s="134" t="s">
         <v>420</v>
       </c>
-      <c r="R7" s="134" t="s">
+      <c r="S7" s="134" t="s">
         <v>421</v>
       </c>
-      <c r="S7" s="134" t="s">
+      <c r="T7" s="135" t="s">
         <v>422</v>
-      </c>
-      <c r="T7" s="135" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="128">
@@ -9140,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F8" s="42"/>
       <c r="L8" s="9">
@@ -9195,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F10" s="42"/>
       <c r="H10" s="8">
@@ -9230,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F11" s="42"/>
       <c r="L11" s="9">
@@ -9256,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F12" s="42"/>
       <c r="M12" s="10">
@@ -9285,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="58" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F13" s="42"/>
       <c r="H13" s="8">
@@ -9326,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F14" s="42"/>
       <c r="H14" s="8">
@@ -9439,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F18" s="42"/>
       <c r="L18" s="9">
@@ -9465,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="58" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F19" s="42"/>
       <c r="L19" s="9">
@@ -9491,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F20" s="42"/>
       <c r="J20" s="9">
@@ -9517,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="58" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F21" s="42"/>
       <c r="J21" s="9">
@@ -9546,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F22" s="42"/>
       <c r="H22" s="8">
@@ -9578,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F23" s="42"/>
       <c r="H23" s="8">
@@ -9604,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F24" s="42"/>
       <c r="H24" s="8">
@@ -9659,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F26" s="42"/>
       <c r="H26" s="8">
@@ -9685,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F27" s="42"/>
       <c r="K27" s="9">
@@ -9711,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F28" s="42"/>
       <c r="H28" s="8">
@@ -9740,7 +9761,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F29" s="42"/>
       <c r="H29" s="8">
@@ -9772,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F30" s="42"/>
       <c r="I30" s="9">
@@ -9810,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F31" s="42"/>
       <c r="H31" s="8">
@@ -9945,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F35" s="42"/>
       <c r="H35" s="8">
@@ -9974,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F36" s="42"/>
       <c r="H36" s="8">
@@ -10003,7 +10024,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F37" s="42"/>
       <c r="H37" s="8">
@@ -10035,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F38" s="42"/>
       <c r="H38" s="8">
@@ -10070,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F39" s="42"/>
       <c r="K39" s="9">
@@ -10099,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F40" s="42"/>
       <c r="L40" s="9">
@@ -10125,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F41" s="42"/>
       <c r="L41" s="9">
@@ -10151,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="58" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F42" s="42"/>
       <c r="L42" s="9">
@@ -10177,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F43" s="42"/>
       <c r="H43" s="8">
@@ -10206,7 +10227,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F44" s="42"/>
       <c r="I44" s="9">
@@ -10241,7 +10262,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F45" s="42"/>
       <c r="I45" s="9">
@@ -10267,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F46" s="42"/>
       <c r="K46" s="9">
@@ -10296,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F47" s="42"/>
       <c r="L47" s="9">
@@ -10322,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F48" s="42"/>
       <c r="M48" s="10">
@@ -10351,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F49" s="42"/>
       <c r="M49" s="10">
@@ -10442,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F52" s="42"/>
       <c r="H52" s="8">
@@ -10474,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F53" s="42"/>
       <c r="K53" s="9">
@@ -10506,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F54" s="42"/>
       <c r="K54" s="9">
@@ -10535,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F55" s="42"/>
       <c r="K55" s="9">
@@ -10564,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="57" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F56" s="42"/>
       <c r="K56" s="9">
@@ -10593,7 +10614,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F57" s="42"/>
       <c r="K57" s="9">
@@ -10622,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F58" s="42"/>
       <c r="J58" s="9">
@@ -10660,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F59" s="42"/>
       <c r="H59" s="8">
@@ -10692,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F60" s="42"/>
       <c r="I60" s="9">
@@ -10789,7 +10810,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F63" s="42"/>
       <c r="H63" s="8">
@@ -10815,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="58" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F64" s="42"/>
       <c r="H64" s="8">
@@ -10844,7 +10865,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F65" s="42"/>
       <c r="J65" s="9">
@@ -10876,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="E66" s="58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F66" s="42"/>
       <c r="K66" s="9">
@@ -10902,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F67" s="42"/>
       <c r="L67" s="9">
@@ -10937,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F68" s="42"/>
       <c r="K68" s="9">
@@ -10966,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F69" s="42"/>
       <c r="K69" s="9">
@@ -10995,7 +11016,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="58" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F70" s="42"/>
       <c r="K70" s="9">
@@ -11021,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F71" s="42"/>
       <c r="K71" s="9">
@@ -11047,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="58" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F72" s="42"/>
       <c r="K72" s="9">
@@ -11073,7 +11094,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="57" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F73" s="42"/>
       <c r="K73" s="9">
@@ -11099,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F74" s="42"/>
       <c r="I74" s="9">
@@ -11125,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="57" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F75" s="42"/>
       <c r="K75" s="9">
@@ -11160,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F76" s="42"/>
       <c r="K76" s="9">
@@ -11186,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F77" s="42"/>
       <c r="J77" s="9">
@@ -11221,7 +11242,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="58" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F78" s="42"/>
       <c r="J78" s="9">
@@ -11247,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F79" s="42"/>
       <c r="H79" s="8">
@@ -11273,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F80" s="42"/>
       <c r="H80" s="8">
@@ -11305,7 +11326,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F81" s="42"/>
       <c r="H81" s="8">
@@ -11399,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F84" s="42"/>
       <c r="H84" s="8">
@@ -11437,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F85" s="42"/>
       <c r="J85" s="9">
@@ -11472,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="57" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F86" s="42"/>
       <c r="J86" s="9">
@@ -11498,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="E87" s="58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F87" s="42"/>
       <c r="H87" s="8">
@@ -11524,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="57" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F88" s="42"/>
       <c r="H88" s="8">
@@ -11553,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="58" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F89" s="42"/>
       <c r="I89" s="9">
@@ -11579,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F90" s="42"/>
       <c r="L90" s="9">
@@ -11605,7 +11626,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F91" s="42"/>
       <c r="I91" s="9">
@@ -11631,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F92" s="42"/>
       <c r="L92" s="9">
@@ -11660,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="E93" s="58" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F93" s="42"/>
       <c r="I93" s="9">
@@ -11686,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F94" s="42"/>
       <c r="J94" s="9">
@@ -11712,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F95" s="42"/>
       <c r="I95" s="9">
@@ -13706,12 +13727,12 @@
     </row>
     <row r="2" spans="1:10" s="73" customFormat="1" ht="55" customHeight="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="170" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
       <c r="F2" s="72"/>
     </row>
     <row r="3" spans="1:10" s="73" customFormat="1">
@@ -13734,11 +13755,11 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="78"/>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="32">
       <c r="B7" s="79" t="s">
@@ -13844,11 +13865,11 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="78"/>
-      <c r="C15" s="170" t="s">
+      <c r="C15" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
     </row>
     <row r="16" spans="1:10" s="74" customFormat="1" ht="32">
       <c r="B16" s="79" t="s">
@@ -13986,11 +14007,11 @@
     </row>
     <row r="24" spans="2:10" s="74" customFormat="1">
       <c r="B24" s="78"/>
-      <c r="C24" s="170" t="s">
+      <c r="C24" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
       <c r="G24" s="77"/>
       <c r="H24" s="77"/>
       <c r="I24" s="77"/>
@@ -14132,11 +14153,11 @@
     </row>
     <row r="33" spans="2:10" s="74" customFormat="1">
       <c r="B33" s="78"/>
-      <c r="C33" s="170" t="s">
+      <c r="C33" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
       <c r="G33" s="77"/>
       <c r="H33" s="77"/>
       <c r="I33" s="77"/>
@@ -14288,11 +14309,11 @@
     </row>
     <row r="43" spans="2:10" s="74" customFormat="1">
       <c r="B43" s="78"/>
-      <c r="C43" s="170" t="s">
+      <c r="C43" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
       <c r="G43" s="77"/>
       <c r="H43" s="77"/>
       <c r="I43" s="77"/>
@@ -14434,11 +14455,11 @@
     </row>
     <row r="52" spans="2:10" s="74" customFormat="1">
       <c r="B52" s="78"/>
-      <c r="C52" s="170" t="s">
+      <c r="C52" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
       <c r="G52" s="77"/>
       <c r="H52" s="77"/>
       <c r="I52" s="77"/>
